--- a/src/main/resources/purchase.xlsx
+++ b/src/main/resources/purchase.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="680" yWindow="0" windowWidth="22960" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="采购、发料、总结总表" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t xml:space="preserve">单位：                                      </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,10 +30,6 @@
   </si>
   <si>
     <t>名 称</t>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>型号规格</t>
@@ -152,50 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行标准：</t>
-  </si>
-  <si>
-    <t>基本安全技术规范：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB18401-2010A类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB18401-2010B类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB18401-2010C类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>防静电服：</t>
-  </si>
-  <si>
-    <t>GB 12014-2009/A级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB 12014-2009/B级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>防酸碱</t>
-  </si>
-  <si>
-    <t>GB 24540-2009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻燃：</t>
-  </si>
-  <si>
-    <t>GB 8965.1-2009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>采购计划/发料清单/订单总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,15 +253,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>订单合同交期：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${po.tabulator}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${po.contractDeliveryDate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,39 +305,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$[G8*I8*K8]//dhs.pus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[N8-O8]//dhs.pus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[(R8-P8)*Q8]//dhs.pus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[AA8-R8-O8]//dhs.pus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[G8*Y8*Z8]//dhs.pus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[AB8-AC8]//dhs.pus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[(AD8-AA8)*Q8]//dhs.pus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${dhs.pus.reason}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$[AD8*Q8]//dhs.pus</t>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[G7*I7*K7]//dhs.pus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[(R7-P7)*Q7]//dhs.pus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[AA7-R7-O7]//dhs.pus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[G7*Y7*Z7]//dhs.pus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[AB7-AC7]//dhs.pus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[(AD7-AA7)*Q7]//dhs.pus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[AD7*Q7]//dhs.pus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[N7-O7-R7]//dhs.pus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +353,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -541,29 +494,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,32 +524,21 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -633,42 +575,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,13 +634,13 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,37 +661,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -792,54 +708,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -897,7 +768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -932,7 +803,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1141,65 +1012,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JA21"/>
+  <dimension ref="A1:JA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:L10"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="16" customWidth="1"/>
     <col min="7" max="7" width="8" style="16" customWidth="1"/>
     <col min="8" max="8" width="7" style="16" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="16" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="16" customWidth="1"/>
     <col min="13" max="13" width="8" style="16" customWidth="1"/>
-    <col min="14" max="14" width="8.25" style="17" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="17" customWidth="1"/>
     <col min="15" max="15" width="9" style="16" customWidth="1"/>
-    <col min="16" max="16" width="8.125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" style="17" customWidth="1"/>
     <col min="17" max="17" width="7" style="16" customWidth="1"/>
     <col min="18" max="18" width="8" style="16" customWidth="1"/>
-    <col min="19" max="20" width="8.875" style="17" customWidth="1"/>
-    <col min="21" max="21" width="9.625" style="16" customWidth="1"/>
-    <col min="22" max="22" width="9.375" style="16" customWidth="1"/>
+    <col min="19" max="20" width="8.83203125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" style="16" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" style="16" customWidth="1"/>
     <col min="23" max="23" width="9" style="16" customWidth="1"/>
     <col min="24" max="24" width="6" style="16" customWidth="1"/>
-    <col min="25" max="25" width="6.625" style="16" customWidth="1"/>
-    <col min="26" max="26" width="6.25" style="16" customWidth="1"/>
-    <col min="27" max="27" width="9" style="17"/>
-    <col min="28" max="28" width="9" style="16"/>
-    <col min="29" max="29" width="7.125" style="16" customWidth="1"/>
-    <col min="30" max="30" width="9" style="17"/>
-    <col min="31" max="31" width="9.875" style="17" customWidth="1"/>
-    <col min="32" max="32" width="10.375" style="16" customWidth="1"/>
-    <col min="33" max="33" width="10.375" style="17" customWidth="1"/>
-    <col min="34" max="261" width="9" style="16"/>
-    <col min="262" max="16384" width="9" style="18"/>
+    <col min="25" max="25" width="6.6640625" style="16" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="16" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" style="17"/>
+    <col min="28" max="28" width="8.83203125" style="16"/>
+    <col min="29" max="29" width="7.1640625" style="16" customWidth="1"/>
+    <col min="30" max="30" width="8.83203125" style="17"/>
+    <col min="31" max="31" width="9.83203125" style="17" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" style="16" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" style="17" customWidth="1"/>
+    <col min="34" max="261" width="8.83203125" style="16"/>
+    <col min="262" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="A1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1225,19 +1096,19 @@
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
+      <c r="B2" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1263,23 +1134,23 @@
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="19" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G3" s="19"/>
-      <c r="H3" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
+      <c r="H3" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1303,21 +1174,21 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
+        <v>37</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1339,110 +1210,110 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="7" customFormat="1" ht="36">
+    <row r="5" spans="1:33" s="7" customFormat="1" ht="39">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="M5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="S5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="6" t="s">
+      <c r="V5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="W5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="Z5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="6" t="s">
+      <c r="AB5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AC5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AD5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AE5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AG5" s="37" t="s">
         <v>19</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1475,287 +1346,274 @@
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
-      <c r="AG6" s="37"/>
+      <c r="AG6" s="33"/>
     </row>
     <row r="7" spans="1:33" s="7" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="15" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y7" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD7" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG7" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
       <c r="AF8" s="22"/>
-      <c r="AG8" s="38"/>
+      <c r="AG8" s="34"/>
     </row>
     <row r="9" spans="1:33" s="15" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="48"/>
+        <v>39</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="40"/>
       <c r="D9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="35"/>
+    </row>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="38"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
     </row>
-    <row r="10" spans="1:33" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="39"/>
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="19">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="V11" s="27"/>
+      <c r="AA11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AG11" s="26"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:33" s="7" customFormat="1" ht="20.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+    <row r="12" spans="1:33" s="7" customFormat="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="27"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="29"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="27"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -1765,276 +1623,25 @@
       <c r="AE12" s="26"/>
       <c r="AG12" s="26"/>
     </row>
-    <row r="13" spans="1:33" s="7" customFormat="1" ht="13.5">
-      <c r="A13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="27"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AG13" s="26"/>
-    </row>
-    <row r="14" spans="1:33" s="7" customFormat="1" ht="13.5">
-      <c r="A14" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="27"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AG14" s="26"/>
-    </row>
-    <row r="15" spans="1:33" s="7" customFormat="1" ht="13.5">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="27"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AG15" s="26"/>
-    </row>
-    <row r="16" spans="1:33" s="7" customFormat="1" ht="13.5">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="27"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AG16" s="26"/>
-    </row>
-    <row r="17" spans="1:33" s="7" customFormat="1" ht="24">
-      <c r="A17" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="27"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AG17" s="26"/>
-    </row>
-    <row r="18" spans="1:33" s="7" customFormat="1" ht="24">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="27"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AG18" s="26"/>
-    </row>
-    <row r="19" spans="1:33" s="7" customFormat="1" ht="13.5">
-      <c r="A19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="27"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AG19" s="26"/>
-    </row>
-    <row r="20" spans="1:33" s="7" customFormat="1" ht="13.5">
-      <c r="A20" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="27"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AG20" s="26"/>
-    </row>
-    <row r="21" spans="1:33" s="7" customFormat="1" ht="13.5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="V21" s="27"/>
-      <c r="AA21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AG21" s="26"/>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
+  <mergeCells count="9">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E9:L9"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:C16"/>
-    <mergeCell ref="A17:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>